--- a/NewAllBDLs.xlsx
+++ b/NewAllBDLs.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catalina Arteaga OKRs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricia Cataluna Diaz OKRs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Jaramillo OKRs" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Canal OKRs" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Pablo Nostita Jer OKRs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alejandro Lelo OKRs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Graciela Rios OKRs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jaime Fuster OKRs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erika Fragoso Vega OKRs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grenteria Villasuso OKRs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Name Yet OKRs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Catalina Arteaga OKRs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Patricia Cataluna Diaz OKRs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tomas Jaramillo OKRs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sergio Canal OKRs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Juan Pablo Nostita Jer OKRs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Alejandro Lelo OKRs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Graciela Rios OKRs" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Jaime Fuster OKRs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Erika Fragoso Vega OKRs" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Juan Vargas OKRs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Guillermo Renteria OKRs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MAC BDL OKRs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Gabriel Renowitzky OKRs" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,13 +40,41 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9900"/>
+        <bgColor rgb="00FF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6b26b"/>
+        <bgColor rgb="00F6b26b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3f3f3"/>
+        <bgColor rgb="00F3f3f3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -65,10 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,6 +467,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000ff00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -461,1285 +498,1365 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MX - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>MX - Target</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>CO  - Baseline</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>CO  - Target</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>PE  - Baseline</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>PE  - Target</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>CR  - Baseline</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>CR  - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>53700.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>68600.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9780.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14550.0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1270.0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1290.0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2480.0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2200.0</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>53700</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>68600</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>2231.0</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2208.0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>969.0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>425.0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>118.0</t>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>118</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>6855.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7077.0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2427.0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3523.0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>722.0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>651.0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>435.0</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>142.0</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>6855</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>3174.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4250.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>634.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>893.0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>101.0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>124.0</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>1.26%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>0.99%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1.87%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.74%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>15.7%</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders CDMX</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>10592.0</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12642.0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>10592</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>12642</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders MTY</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>6090.0</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7014.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>6090</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>7014</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders GDL</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>7518.0</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8804.0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>7518</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>8804</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6575.0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4761.0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>87000.0</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>111000.0</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9560.0</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>14650.0</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2290.0</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>2580.0</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2020.0</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2430.0</t>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>87000</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>111000</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>9560</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>14650</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>2430</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>10022.0</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>17392.0</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2446.0</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>4201.0</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1697.0</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>676.0</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>225.0</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>380.0</t>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>17392</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>11823.0</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>10347.0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3407.0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2766.0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>199.0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>851.0</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>11823</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>387.0</t>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>387</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>5517.0</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>8059.0</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>610.0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1105.0</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>133.0</t>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>133</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="6" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="8" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H24" s="8" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I24" s="8" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>SME # Orders CDMX</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>17919.0</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>20407.0</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>17919</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>20407</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>SME # Orders MTY</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>7627.0</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>9055.0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>9055</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>SME # Orders GDL</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>1103.0</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>12779.0</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>12779</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>SME # Orders BOG</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>4520.0</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>5634.0</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>5634</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>SME # Orders MED</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>3908.0</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>5214.0</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>5214</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1751,10 +1868,503 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="000000ff"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="44" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Juan Vargas OKR's</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Sur - Baseline</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Sur - Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SME</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>15515</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>19795</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>3086</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>2289</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>13.80%</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Amauri Martinez OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Carlos Lozano OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Cindy Ibarra OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Jose Pablo Maldonado OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Miguel Angel Kirvan OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="000000ff"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,173 +2374,614 @@
   <cols>
     <col width="44" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grenteria Villasuso OKR's</t>
+          <t>Guillermo Renteria OKR's</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Pacifico - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Pacifico - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>27508</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>35097</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>3350</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>5813</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>3207</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>2807</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>1761</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>2572</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Antonio Topete OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Bertin Mendoza OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>David Rabago OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Edgar Hazel Cisneros OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Emmanuel Ochoa Quintero OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Luis Angel Ballesteros OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Luis Fernando Gutierrez OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>5014</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Sandra Martinez OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1939,13 +2990,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="000000ff"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,358 +3006,1276 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MAC BDL OKR's</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>CO  - Baseline</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>CO  - Target</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PE  - Baseline</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>PE  - Target</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>CR  - Baseline</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>CR  - Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SME</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>9560</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>14650</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Daniel Montalvo OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Jackeline OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Federico Sonallia OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>2581</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Omar Amayo OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Mauricio Montero OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Julian Serrano OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>14650</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00ffff00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No Name Yet OKR's</t>
+          <t>Gabriel Renowitzky OKR's</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>MX - Baseline</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>MX - Target</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>CO  - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>CO  - Target</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>PE  - Baseline</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>PE  - Target</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>CR  - Baseline</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>CR  - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Daily Orders SME</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>9560.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14650.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2290.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2580.0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2020.0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2430.0</t>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>2.39%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>SME Daily Orders for Rs FO in current year</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>2446.0</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4201.0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1697.0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>676.0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>225.0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>380.0</t>
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>1.54%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>SME Total Rs Acquired (By BDs)</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>3407.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2766.0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>199.0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>851.0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>387.0</t>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>SME # of R1s  (5+ Daily Orders)</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>610.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1105.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>133.0</t>
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>13.80%</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>14.9%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>SME B cancel % orders</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2.43%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2.96%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2.39%</t>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>CKA</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>SME imperfect orders</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>2.82%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2.32%</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2.53%</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1.54%</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>CKAs B cancellation rate</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>1.76%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>SME Meal Loss % GMV</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>1.19%</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1.02%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>CKAs imperfect orders</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>2.41%</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>CKA Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>SME B App orders on time rate</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12.8%</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15.3%</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>CKA B App orders on time rate</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14.8%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>14.9%</t>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>15.7%</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>18.2%</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>19.2%</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>20.1%</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>22.8%</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>16.6%</t>
         </is>
       </c>
     </row>
@@ -2317,6 +4287,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000ff00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2345,793 +4316,853 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>CO  - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>CO  - Target</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>PE  - Baseline</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>PE  - Target</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>CR  - Baseline</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>CR  - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>9780.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14550.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1270.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1290.0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2480.0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2200.0</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>969.0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>425.0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>118.0</t>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>118</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>2427.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3523.0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>722.0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>651.0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>435.0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>142.0</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>634.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>893.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>101.0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>124.0</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6575.0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4761.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>9560.0</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14650.0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2290.0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2580.0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2020.0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2430.0</t>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>9560</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>14650</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>2430</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>2446.0</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4201.0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1697.0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>676.0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>225.0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>380.0</t>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>3407.0</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2766.0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>199.0</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>851.0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>387.0</t>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>387</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>610.0</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1105.0</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>133.0</t>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>133</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>SME # Orders BOG</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>4520.0</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>5634.0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>5634</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>SME # Orders MED</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>3908.0</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5214.0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>5214</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3143,6 +5174,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000ff00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -3167,213 +5199,223 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MX - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>MX - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>87000.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>111000.0</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>87000</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>111000</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>10022.0</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>17392.0</t>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>17392</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>11823.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10347.0</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>11823</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>10347</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>5517.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8059.0</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>8059</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>SME # Orders CDMX</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>17919.0</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>20407.0</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>17919</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>20407</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>SME # Orders MTY</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>7627.0</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9055.0</t>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>9055</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>SME # Orders GDL</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>1103.0</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12779.0</t>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>12779</t>
         </is>
       </c>
     </row>
@@ -3385,6 +5427,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff9900"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -3409,128 +5452,138 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MX - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>MX - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>53700.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>68600.0</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>53700</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>68600</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>2231.0</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2208.0</t>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>2208</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>6855.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7077.0</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>6855</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>7077</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders CDMX</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>10592.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>12642.0</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>10592</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>12642</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders MTY</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>6090.0</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7014.0</t>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>6090</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>7014</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders GDL</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>7518.0</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>8804.0</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>7518</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>8804</t>
         </is>
       </c>
     </row>
@@ -3542,6 +5595,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff9900"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -3554,8 +5608,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="41" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3566,77 +5620,87 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CDMX - Baseline</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>CDMX - Target</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>MX - Baseline</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>MX - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>10977</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14023</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>53700</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>68600</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>753</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>745</t>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>2208</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>1632</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1684</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>6855</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>7077</t>
         </is>
       </c>
     </row>
@@ -3648,6 +5712,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff9900"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -3676,155 +5741,185 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Norte - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Norte - Target</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Sur - Baseline</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Sur - Target</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Pacifico - Baseline</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Pacifico - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>17539</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>22405</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>8103</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>10351</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>17081</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>21821</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>565</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>560</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>359</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>355</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>554</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>548</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>2272</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>2346</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>832</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>859</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>2119</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>2187</t>
         </is>
@@ -3838,10 +5933,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff9900"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3850,12 +5946,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="41" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="41" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3866,416 +5964,730 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>CO  - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>CO  - Target</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>PE  - Baseline</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>PE  - Target</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>CR  - Baseline</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>CR  - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>CKA</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>9780.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14550.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1270.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1290.0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2480.0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2200.0</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>969.0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>425.0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>118.0</t>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>118</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>2427.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3523.0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>722.0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>651.0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>435.0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>142.0</t>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>634.0</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>893.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>101.0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>124.0</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6575.0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4761.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders CKA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>CKA Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders of CKA Rs acquired in 2024</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>CKA # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>CKAs B cancellation rate</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>CKAs imperfect orders</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>CKA Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>CKA B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Juan Gomez OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>6886</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Marcela Castano OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>4862</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Marco Rojas OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>2.41%</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>20.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Kevin Molina OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>16.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Daniela Ramirez OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>14.7%</t>
         </is>
       </c>
     </row>
@@ -4287,10 +6699,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff9900"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,7 +6713,13 @@
   <cols>
     <col width="44" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4311,160 +6730,595 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Norte - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Norte - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>26886</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>34303</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>2392</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>4151</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>2837</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>2483</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>1740</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>2542</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Christian Enrique OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Cristopher Chocoteco OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Cynthia Judith Espinosa OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>4900</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Fernando Javier OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Francisco Armando OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Juan Arturo Estrada OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Manuel San Juan OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>2450</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Juan Eduardo Soto OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>4900</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -4478,10 +7332,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="000000ff"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4490,8 +7345,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4502,160 +7363,501 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>CDMX - Baseline</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>CDMX - Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SME</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>16784</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>21414</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>2502</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>4343</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>3489</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>3054</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>1030</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>1504</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders SME</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SME Daily Orders for Rs FO in current year</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SME Total Rs Acquired (By BDs)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SME # of R1s  (5+ Daily Orders)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>SME B cancel % orders</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>SME imperfect orders</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>SME Meal Loss % GMV</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>SME B App orders on time rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Jorge Garcia OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>2920</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Jorge Renato Sotelo OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Juan Jose Fierro OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Karin Luna OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Luis Enrique Quintero OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>2920</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Riccardo Picone OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>

--- a/NewAllBDLs.xlsx
+++ b/NewAllBDLs.xlsx
@@ -95,15 +95,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -597,45 +609,29 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>53700</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>68600</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>9780</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>14550</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>68600</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>14550</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1290</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2480</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="5">
@@ -644,45 +640,35 @@
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="B5" s="8" t="n">
+        <v>2231</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>2208</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>969</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="E5" s="8" t="n">
+        <v>969</v>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="G5" s="8" t="n">
+        <v>425</v>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
+      <c r="I5" s="8" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -691,45 +677,29 @@
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>6855</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>7077</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>2427</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>7077</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2427</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>3523</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>722</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>651</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>435</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -738,45 +708,29 @@
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>3174</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>893</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>3174</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>634</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>893</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -785,42 +739,42 @@
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>1.26%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>0.99%</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
@@ -832,42 +786,42 @@
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.87%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
@@ -879,42 +833,42 @@
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.74%</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="10" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
@@ -926,42 +880,42 @@
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>15.7%</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="I11" s="8" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
@@ -973,45 +927,29 @@
           <t>CKA # Orders CDMX</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>10592</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>12642</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B12" s="6" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>12642</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1020,45 +958,29 @@
           <t>CKA # Orders MTY</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>6090</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>7014</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B13" s="8" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>7014</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1067,45 +989,29 @@
           <t>CKA # Orders GDL</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>7518</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>8804</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B14" s="6" t="n">
+        <v>7518</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>8804</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1114,45 +1020,29 @@
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>6575</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1161,45 +1051,29 @@
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>4761</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>4761</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1255,45 +1129,29 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>87000</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>9560</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>14650</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>2290</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>2580</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="I18" s="8" t="inlineStr">
-        <is>
-          <t>2430</t>
-        </is>
+      <c r="B18" s="8" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>111000</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>14650</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>2290</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2580</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2430</v>
       </c>
     </row>
     <row r="19">
@@ -1302,45 +1160,29 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>17392</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>2446</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>1697</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr">
-        <is>
-          <t>676</t>
-        </is>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+      <c r="B19" s="6" t="n">
+        <v>10022</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>17392</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2446</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>4201</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1697</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>676</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="20">
@@ -1349,45 +1191,31 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>11823</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>10347</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>3407</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>2766</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>11823</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>10347</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>3407</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2766</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>199</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>851</v>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
+      <c r="I20" s="8" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="21">
@@ -1396,45 +1224,29 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>5517</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>8059</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
+      <c r="B21" s="6" t="n">
+        <v>5517</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>8059</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>610</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1443,42 +1255,42 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="9" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="I22" s="8" t="inlineStr">
+      <c r="I22" s="9" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
@@ -1490,42 +1302,42 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E23" s="10" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
+      <c r="F23" s="10" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="G23" s="6" t="inlineStr">
+      <c r="G23" s="10" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="H23" s="6" t="inlineStr">
+      <c r="H23" s="10" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
+      <c r="I23" s="10" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
@@ -1537,42 +1349,42 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="E24" s="8" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="G24" s="8" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="H24" s="8" t="inlineStr">
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="I24" s="8" t="inlineStr">
+      <c r="I24" s="9" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
@@ -1584,42 +1396,42 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="10" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
+      <c r="F25" s="10" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
+      <c r="G25" s="10" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="H25" s="6" t="inlineStr">
+      <c r="H25" s="10" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
+      <c r="I25" s="10" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
@@ -1631,45 +1443,29 @@
           <t>SME # Orders CDMX</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>17919</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>20407</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I26" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B26" s="8" t="n">
+        <v>17919</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>20407</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1678,45 +1474,29 @@
           <t>SME # Orders MTY</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>7627</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>9055</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B27" s="6" t="n">
+        <v>7627</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>9055</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1725,45 +1505,29 @@
           <t>SME # Orders GDL</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>1103</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>12779</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I28" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B28" s="8" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>12779</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1772,45 +1536,29 @@
           <t>SME # Orders BOG</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>5634</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>4520</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>5634</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1819,45 +1567,29 @@
           <t>SME # Orders MED</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>5214</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>5214</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1938,15 +1670,11 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>15515</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>19795</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>15515</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>19795</v>
       </c>
     </row>
     <row r="5">
@@ -1955,15 +1683,11 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>1778</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>3086</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>3086</v>
       </c>
     </row>
     <row r="6">
@@ -1972,15 +1696,11 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2289</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>2289</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2004</v>
       </c>
     </row>
     <row r="7">
@@ -1989,15 +1709,11 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>986</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>986</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1440</v>
       </c>
     </row>
     <row r="8">
@@ -2006,12 +1722,12 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
@@ -2023,12 +1739,12 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
@@ -2040,12 +1756,12 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
@@ -2057,12 +1773,12 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2123,42 +1839,36 @@
           <t>Amauri Martinez OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>5444</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>849</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="B15" s="6" t="n">
+        <v>5444</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>849</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2170,42 +1880,36 @@
           <t>Carlos Lozano OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>3464</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>540</v>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E16" s="8" t="n">
+        <v>348</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2217,42 +1921,36 @@
           <t>Cindy Ibarra OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>3464</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>540</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="E17" s="6" t="n">
+        <v>348</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2264,42 +1962,36 @@
           <t>Jose Pablo Maldonado OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>3959</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="B18" s="8" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>617</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>397</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="E18" s="8" t="n">
+        <v>397</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2311,42 +2003,36 @@
           <t>Miguel Angel Kirvan OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="B19" s="6" t="n">
+        <v>3464</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>540</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="E19" s="6" t="n">
+        <v>348</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2430,15 +2116,11 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>27508</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>35097</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>27508</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>35097</v>
       </c>
     </row>
     <row r="5">
@@ -2447,15 +2129,11 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>3350</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>5813</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>5813</v>
       </c>
     </row>
     <row r="6">
@@ -2464,15 +2142,11 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>3207</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>2807</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2807</v>
       </c>
     </row>
     <row r="7">
@@ -2481,15 +2155,11 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>1761</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>2572</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>2572</v>
       </c>
     </row>
     <row r="8">
@@ -2498,12 +2168,12 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
@@ -2515,12 +2185,12 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
@@ -2532,12 +2202,12 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
@@ -2549,12 +2219,12 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2615,42 +2285,36 @@
           <t>Antonio Topete OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="B15" s="6" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="E15" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2662,42 +2326,36 @@
           <t>Bertin Mendoza OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>623</v>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E16" s="8" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2709,42 +2367,36 @@
           <t>David Rabago OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="E17" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2756,42 +2408,36 @@
           <t>Edgar Hazel Cisneros OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="B18" s="8" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>727</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="E18" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2803,42 +2449,36 @@
           <t>Emmanuel Ochoa Quintero OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>6267</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>1038</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="B19" s="6" t="n">
+        <v>6267</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="E19" s="6" t="n">
+        <v>572</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2850,42 +2490,36 @@
           <t>Luis Angel Ballesteros OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>3134</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>519</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>1276</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>3134</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>519</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2897,42 +2531,36 @@
           <t>Luis Fernando Gutierrez OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>5014</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="B21" s="6" t="n">
+        <v>5014</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>830</v>
+      </c>
+      <c r="D21" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="E21" s="6" t="n">
+        <v>457</v>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="H21" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="I21" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -2944,42 +2572,36 @@
           <t>Sandra Martinez OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>1531</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="B22" s="8" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>623</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H22" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I22" s="8" t="inlineStr">
+      <c r="I22" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3103,35 +2725,23 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>9560</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>14650</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>2290</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>2580</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>2430</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>14650</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>2290</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2580</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2430</v>
       </c>
     </row>
     <row r="5">
@@ -3140,35 +2750,23 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2446</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>1697</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>676</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>2446</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>4201</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1697</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>676</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>225</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -3177,35 +2775,25 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>3407</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>2766</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="B6" s="6" t="n">
+        <v>3407</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>851</v>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
+      <c r="G6" s="6" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="7">
@@ -3214,35 +2802,23 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>610</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>103</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -3251,32 +2827,32 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
@@ -3288,32 +2864,32 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
@@ -3325,32 +2901,32 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
@@ -3362,32 +2938,32 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
@@ -3448,42 +3024,36 @@
           <t>Daniel Montalvo OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>7189</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>2193</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="B15" s="6" t="n">
+        <v>7189</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2193</v>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>543</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="E15" s="6" t="n">
+        <v>543</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="10" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
@@ -3495,42 +3065,36 @@
           <t>Jackeline OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>4880</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>1433</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>4880</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E16" s="8" t="n">
+        <v>357</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
@@ -3542,42 +3106,36 @@
           <t>Federico Sonallia OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>2581</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>575</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="E17" s="6" t="n">
+        <v>204</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
@@ -3586,45 +3144,37 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Omar Amayo OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>2580</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>676</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+          <t>Omar Amayo OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>2580</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>676</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>851</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
@@ -3633,45 +3183,37 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Mauricio Montero OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>2430</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+          <t>Mauricio Montero OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>2430</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>380</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>387</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="10" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="10" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
@@ -3683,42 +3225,36 @@
           <t>Julian Serrano OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>14650</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>2766</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>14650</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4201</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>2766</v>
+      </c>
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3862,42 +3398,42 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="10" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
@@ -3909,42 +3445,42 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
@@ -3956,42 +3492,42 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="10" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
@@ -4003,42 +3539,42 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
@@ -4097,42 +3633,42 @@
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>1.26%</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>0.99%</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
@@ -4144,42 +3680,42 @@
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>1.87%</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="I10" s="9" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
@@ -4191,42 +3727,42 @@
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>0.74%</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="10" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="10" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
@@ -4238,42 +3774,42 @@
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>15.7%</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="I12" s="9" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
@@ -4395,35 +3931,23 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>9780</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>14550</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>14550</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2480</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="5">
@@ -4432,35 +3956,29 @@
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>969</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="C5" s="8" t="n">
+        <v>969</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="E5" s="8" t="n">
+        <v>425</v>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
+      <c r="G5" s="8" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -4469,35 +3987,23 @@
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2427</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>2427</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>3523</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>722</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>651</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>435</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -4506,35 +4012,23 @@
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>893</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>634</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>893</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -4543,32 +4037,32 @@
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
@@ -4580,32 +4074,32 @@
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
@@ -4617,32 +4111,32 @@
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
@@ -4654,32 +4148,32 @@
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
@@ -4691,35 +4185,23 @@
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>6575</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4728,35 +4210,23 @@
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>4761</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4761</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4802,35 +4272,23 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>9560</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>14650</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>2290</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>2580</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>2430</t>
-        </is>
+      <c r="B15" s="6" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>14650</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2290</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2580</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2430</v>
       </c>
     </row>
     <row r="16">
@@ -4839,35 +4297,23 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>2446</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>1697</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>676</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+      <c r="B16" s="8" t="n">
+        <v>2446</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>4201</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>1697</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>676</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>225</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="17">
@@ -4876,35 +4322,25 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>3407</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>2766</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>3407</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>851</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
+      <c r="G17" s="6" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="18">
@@ -4913,35 +4349,23 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
+      <c r="B18" s="8" t="n">
+        <v>610</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>103</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -4950,32 +4374,32 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>2.91%</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="10" t="inlineStr">
         <is>
           <t>2.43%</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>2.39%</t>
         </is>
@@ -4987,32 +4411,32 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>2.32%</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
@@ -5024,32 +4448,32 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
         <is>
           <t>1.19%</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="10" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>0.75%</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
@@ -5061,32 +4485,32 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>16.4%</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>12.8%</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>15.3%</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>16.7%</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr">
         <is>
           <t>14.8%</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="9" t="inlineStr">
         <is>
           <t>14.9%</t>
         </is>
@@ -5098,35 +4522,23 @@
           <t>SME # Orders BOG</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>5634</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B23" s="6" t="n">
+        <v>4520</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>5634</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5135,35 +4547,23 @@
           <t>SME # Orders MED</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>5214</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B24" s="8" t="n">
+        <v>3908</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5214</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5238,15 +4638,11 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>87000</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>111000</v>
       </c>
     </row>
     <row r="5">
@@ -5255,15 +4651,11 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>17392</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>10022</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>17392</v>
       </c>
     </row>
     <row r="6">
@@ -5272,15 +4664,11 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>11823</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>10347</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>11823</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>10347</v>
       </c>
     </row>
     <row r="7">
@@ -5289,15 +4677,11 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>5517</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>8059</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>5517</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>8059</v>
       </c>
     </row>
     <row r="8">
@@ -5306,12 +4690,12 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
@@ -5323,12 +4707,12 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
@@ -5340,12 +4724,12 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
@@ -5357,12 +4741,12 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -5374,15 +4758,11 @@
           <t>SME # Orders CDMX</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>17919</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>20407</t>
-        </is>
+      <c r="B12" s="6" t="n">
+        <v>17919</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>20407</v>
       </c>
     </row>
     <row r="13">
@@ -5391,15 +4771,11 @@
           <t>SME # Orders MTY</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>7627</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>9055</t>
-        </is>
+      <c r="B13" s="8" t="n">
+        <v>7627</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>9055</v>
       </c>
     </row>
     <row r="14">
@@ -5408,15 +4784,11 @@
           <t>SME # Orders GDL</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>1103</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>12779</t>
-        </is>
+      <c r="B14" s="6" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>12779</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +4803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,8 +4812,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="41" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5491,100 +4863,173 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>53700</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>68600</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>68600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>CKA Total Rs Acquired (By BDs)</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
+          <t>Daily Orders of CKA Rs acquired in 2024</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>7077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Daily Orders of CKA Rs acquired in 2024</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>6855</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>7077</t>
-        </is>
+          <t>CKA # Orders CDMX</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>12642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>CKA # Orders CDMX</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>10592</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>12642</t>
-        </is>
+          <t>CKA # Orders MTY</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>7014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>CKA # Orders MTY</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>6090</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>7014</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
           <t>CKA # Orders GDL</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>7518</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>8804</t>
-        </is>
+      <c r="B8" s="6" t="n">
+        <v>7518</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>BDM</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders CKA</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Daily Orders of CKA Rs acquired in 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>Andrea Lezama OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>14050</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Claudia Rodriguez OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>8645</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Juan Vega Macip OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>6111</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Reyna Salazar OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>6934</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Jose Ochoa OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>14060</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Luis Azcona OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Daniela Garza OKRs (Farmer)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>9519</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -5659,15 +5104,11 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>53700</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>68600</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>68600</v>
       </c>
     </row>
     <row r="5">
@@ -5676,15 +5117,11 @@
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>2231</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>2208</v>
       </c>
     </row>
     <row r="6">
@@ -5693,15 +5130,11 @@
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>6855</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>7077</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>7077</v>
       </c>
     </row>
   </sheetData>
@@ -5820,35 +5253,23 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>17539</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>22405</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>8103</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>10351</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>17081</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>21821</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>17539</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>22405</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>8103</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>10351</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>17081</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>21821</v>
       </c>
     </row>
     <row r="5">
@@ -5857,35 +5278,23 @@
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>359</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>565</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>560</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>359</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>554</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>548</v>
       </c>
     </row>
     <row r="6">
@@ -5894,35 +5303,23 @@
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2272</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>2346</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>832</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>2119</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>2187</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>2272</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>832</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>859</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2119</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2187</v>
       </c>
     </row>
   </sheetData>
@@ -6043,35 +5440,23 @@
           <t>Daily Orders CKA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>9780</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>14550</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>14550</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2480</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="5">
@@ -6080,35 +5465,29 @@
           <t>CKA Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>969</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="C5" s="8" t="n">
+        <v>969</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="E5" s="8" t="n">
+        <v>425</v>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
+      <c r="G5" s="8" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -6117,35 +5496,23 @@
           <t>Daily Orders of CKA Rs acquired in 2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2427</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>2427</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>3523</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>722</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>651</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>435</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -6154,35 +5521,23 @@
           <t>CKA # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>893</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>634</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>893</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -6191,32 +5546,32 @@
           <t>CKAs B cancellation rate</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>1.33%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>1.78%</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
@@ -6228,32 +5583,32 @@
           <t>CKAs imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>2.29%</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
@@ -6265,32 +5620,32 @@
           <t>CKA Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>1.17%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
@@ -6302,32 +5657,32 @@
           <t>CKA B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>18.2%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>19.2%</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>22.8%</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
@@ -6339,35 +5694,23 @@
           <t>CKA # Orders BOG</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>6575</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6376,35 +5719,23 @@
           <t>CKA # Orders MED</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>4761</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4761</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14"/>
@@ -6459,45 +5790,37 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Juan Gomez OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>6886</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>439</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>1759</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+          <t>Juan Gomez OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>6886</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>439</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>430</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
@@ -6506,45 +5829,37 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Marcela Castano OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>4862</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>1167</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+          <t>Marcela Castano OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>4862</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>249</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>308</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
@@ -6553,45 +5868,37 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Marco Rojas OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+          <t>Marco Rojas OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>425</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>651</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>2.41%</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="10" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
@@ -6600,45 +5907,37 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Kevin Molina OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
+          <t>Kevin Molina OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>118</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>142</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>1.18%</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>0.66%</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
@@ -6647,45 +5946,37 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Daniela Ramirez OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>2802</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+          <t>Daniela Ramirez OKRs (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>2802</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>281</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>598</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="H21" s="10" t="inlineStr">
         <is>
           <t>0.94%</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="I21" s="10" t="inlineStr">
         <is>
           <t>14.7%</t>
         </is>
@@ -6769,15 +6060,11 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>26886</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>34303</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>26886</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>34303</v>
       </c>
     </row>
     <row r="5">
@@ -6786,15 +6073,11 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2392</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>4151</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>2392</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>4151</v>
       </c>
     </row>
     <row r="6">
@@ -6803,15 +6086,11 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2837</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>2483</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2483</v>
       </c>
     </row>
     <row r="7">
@@ -6820,15 +6099,11 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>1740</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>2542</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>2542</v>
       </c>
     </row>
     <row r="8">
@@ -6837,12 +6112,12 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
@@ -6854,12 +6129,12 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
@@ -6871,12 +6146,12 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
@@ -6888,12 +6163,12 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -6954,42 +6229,36 @@
           <t>Christian Enrique OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>3675</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="B15" s="6" t="n">
+        <v>3675</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>445</v>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>325</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7001,42 +6270,36 @@
           <t>Cristopher Chocoteco OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>4288</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>519</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>4288</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>519</v>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>379</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7048,42 +6311,36 @@
           <t>Cynthia Judith Espinosa OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>593</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>433</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7092,47 +6349,41 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Fernando Javier OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>3063</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="I18" s="8" t="inlineStr">
-        <is>
-          <t>13.0%</t>
+          <t>Fernando Javier Olivares OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>3063</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>371</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7142,42 +6393,36 @@
           <t>Francisco Armando OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>5513</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>667</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="B19" s="6" t="n">
+        <v>5513</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>667</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>487</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7189,42 +6434,36 @@
           <t>Juan Arturo Estrada OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>5513</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>667</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>5513</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>667</v>
+      </c>
+      <c r="D20" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>487</v>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7233,47 +6472,41 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Manuel San Juan OKRs (Farmer)</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>2450</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>13.0%</t>
+          <t>Manuel San Juan OKRs (Hunter)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>296</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7283,42 +6516,36 @@
           <t>Juan Eduardo Soto OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="B22" s="8" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>593</v>
+      </c>
+      <c r="D22" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>433</v>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I22" s="8" t="inlineStr">
+      <c r="I22" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7402,15 +6629,11 @@
           <t>Daily Orders SME</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>16784</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>21414</t>
-        </is>
+      <c r="B4" s="6" t="n">
+        <v>16784</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>21414</v>
       </c>
     </row>
     <row r="5">
@@ -7419,15 +6642,11 @@
           <t>SME Daily Orders for Rs FO in current year</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>2502</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>4343</t>
-        </is>
+      <c r="B5" s="8" t="n">
+        <v>2502</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>4343</v>
       </c>
     </row>
     <row r="6">
@@ -7436,15 +6655,11 @@
           <t>SME Total Rs Acquired (By BDs)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>3489</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>3054</t>
-        </is>
+      <c r="B6" s="6" t="n">
+        <v>3489</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>3054</v>
       </c>
     </row>
     <row r="7">
@@ -7453,15 +6668,11 @@
           <t>SME # of R1s  (5+ Daily Orders)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>1030</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
+      <c r="B7" s="8" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1504</v>
       </c>
     </row>
     <row r="8">
@@ -7470,12 +6681,12 @@
           <t>SME B cancel % orders</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
@@ -7487,12 +6698,12 @@
           <t>SME imperfect orders</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>1.91%</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
@@ -7504,12 +6715,12 @@
           <t>SME Meal Loss % GMV</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
@@ -7521,12 +6732,12 @@
           <t>SME B App orders on time rate</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7587,42 +6798,36 @@
           <t>Jorge Garcia OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>1527</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="B15" s="6" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>592</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7634,42 +6839,36 @@
           <t>Jorge Renato Sotelo OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>3407</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>691</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>3407</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>691</v>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E16" s="8" t="n">
+        <v>329</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7681,42 +6880,36 @@
           <t>Juan Jose Fierro OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>3893</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="B17" s="6" t="n">
+        <v>3893</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>790</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="E17" s="6" t="n">
+        <v>376</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7728,42 +6921,36 @@
           <t>Karin Luna OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>4380</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="B18" s="8" t="n">
+        <v>4380</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>888</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="E18" s="8" t="n">
+        <v>423</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
@@ -7775,42 +6962,36 @@
           <t>Luis Enrique Quintero OKRs (Hunter)</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>1527</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="B19" s="6" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>592</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7822,42 +7003,36 @@
           <t>Riccardo Picone OKRs (Farmer)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>3893</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>3893</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>790</v>
+      </c>
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="E20" s="8" t="n">
+        <v>376</v>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>0.42%</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>13.0%</t>
         </is>
